--- a/Arbeitsrapport.xlsx
+++ b/Arbeitsrapport.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="64" documentId="8_{CFEEC167-25AB-45F4-A5B9-8D882606CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99CEA36-A5E6-4C17-96A4-5A9E1E33BA7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C5876C3-7165-4649-88D8-6B498D0124A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C5876C3-7165-4649-88D8-6B498D0124A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B68427-5509-4DD7-A480-FC9E7660B353}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
